--- a/APP_PERSONAS_XML/src/test/resources/templatesxml/Xml_Transacciones_Canales.xlsx
+++ b/APP_PERSONAS_XML/src/test/resources/templatesxml/Xml_Transacciones_Canales.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AUTOMATIZACION JAVA\PROYECTOS GRADLE\PROYECTOS XML\PITTS_CanalesVirtuales_XML_TEST\src\test\resources\templatesxml\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AUTOMATIZACION JAVA\PROYECTOS GRADLE\PROYECTOS NUEVA APP\AW1059001_NuevaAPPSucursalVirtualPersonas_Test\APP_PERSONAS_XML\src\test\resources\templatesxml\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="275">
   <si>
     <t>Canal</t>
   </si>
@@ -1484,15 +1484,6 @@
     <t>Autenticacion - Personas</t>
   </si>
   <si>
-    <t>&lt;TCFX&gt;
- &lt;HEADERRQ TRNUID="_TRNUID" SESSCOOKIE="_SESSCOOKIE" BANKID="0007" APPID="OLB" APPVER="v1.0" DATECREATED="_FECHA 10:00:00" CLIENTIP="172.001.002.003" USERTYPE="PERSONAL"/&gt;
- &lt;AUTHRQ&gt;
-    &lt;USERID&gt;_CLIENTID&lt;/USERID&gt;
-    &lt;USERPASS&gt;_CLAVE&lt;/USERPASS&gt;
- &lt;/AUTHRQ&gt;
-&lt;/TCFX&gt;</t>
-  </si>
-  <si>
     <t>Saldos Cuentas Depositos - Personas</t>
   </si>
   <si>
@@ -2024,23 +2015,6 @@
   <si>
     <t xml:space="preserve">&lt;TCFX&gt;&lt;HEADERRQ TRNUID="_TRNUID" SESSCOOKIE="_SESSCOOKIE" BANKID="0007" APPID="OLB" APPVER="v1.0" DATECREATED="_FECHA 10:29:10" CLIENTIP="201.232.87.175" USERTYPE="PERSONAL" CLIENTID="_CLIENTID" CLIENTTYPE="CC" /&gt; &lt;INVSTRATESRQ /&gt; &lt;/TCFX&gt;
 </t>
-  </si>
-  <si>
-    <t>&lt;TCFX&gt;
-&lt;HEADERRQ TRNUID="_TRNUID" SESSCOOKIE="_SESSCOOKIE"
-BANKID="0007" APPID="OLB" APPVER="v1.0" DATECREATED="_FECHA 00:00:00"               
-CLIENTIP="201.232.87.175" USERTYPE="PERSONAL"  CLIENTID="1035103510" CLIENTTYPE="CC" /&gt;    
-&lt;INVSTRQ PERIODICITY="_Periodicidad" INVESTMENTTYPE="SIMULATION"&gt;
-&lt;BANKACCT ACCTTYPE="DEPOSITO"&gt;            
-&lt;BANKID&gt;0007&lt;/BANKID&gt;            
-&lt;ACCTID&gt;_Cuenta&lt;/ACCTID&gt;            
-&lt;ACCTTYPECODE&gt;_TipoCuenta&lt;/ACCTTYPECODE&gt;        
-&lt;/BANKACCT&gt;        
-&lt;TERM&gt;_Tiempo&lt;/TERM&gt;        
-&lt;TRNAMT&gt;_Valor&lt;/TRNAMT&gt;        
-&lt;EFECTIVERATE&gt;_TasaEfectiva&lt;/EFECTIVERATE&gt;    
-&lt;/INVSTRQ&gt;
-&lt;/TCFX&gt;</t>
   </si>
   <si>
     <t>&lt;TCFX&gt; 
@@ -2063,6 +2037,47 @@
 &lt;ACCEPTEDDATE&gt;_FECHA 11:07:00&lt;/ACCEPTEDDATE&gt; 
 &lt;/TERMS&gt;
 &lt;/INVSTRQ&gt; 
+&lt;/TCFX&gt;</t>
+  </si>
+  <si>
+    <t>&lt;TCFX&gt;
+ &lt;HEADERRQ TRNUID="_TRNUID" SESSCOOKIE="_SESSCOOKIE" BANKID="0007" APPID="OLB" APPVER="v1.0" DATECREATED="_FECHA 10:00:00" CLIENTIP="172.001.002.003" USERTYPE="PERSONAL"/&gt;
+ &lt;AUTHRQ&gt;
+    &lt;USERID&gt;_CLIENTID&lt;/USERID&gt;
+    &lt;USERPASS&gt;_CLAVE&lt;/USERPASS&gt;
+ &lt;/AUTHRQ&gt;
+&lt;/TCFX&gt;</t>
+  </si>
+  <si>
+    <t>&lt;TCFX&gt; 
+&lt;HEADERRQ TRNUID="_TRNUID" 
+SESSCOOKIE="_SESSCOOKIE" BANKID="0007" APPID="APP_PERSONAL" 
+APPVER="v1.0" DATECREATED="_FECHA 11:07:00"  
+CLIENTIP="201.232.87.175" USERTYPE="PERSONAL"  
+CLIENTID="20170602" CLIENTTYPE="PASS" /&gt; 
+&lt;BILLADMINRQ ACTION="ADD"&gt;
+&lt;BILLERNAME&gt;Convenio adhoc android ref1&lt;/BILLERNAME&gt;
+&lt;PAYEEID&gt;65437&lt;/PAYEEID&gt;
+&lt;PAYREF NAME="Cedula"&gt;607005005&lt;/PAYREF&gt;
+&lt;DESCRIPTION&gt;est AdhocXMLWas T01&lt;/DESCRIPTION&gt;
+&lt;BILLAMOUNT&gt;6500.00&lt;/BILLAMOUNT&gt;
+&lt;/BILLADMINRQ&gt; 
+&lt;/TCFX&gt;</t>
+  </si>
+  <si>
+    <t>&lt;TCFX&gt;     &lt;HEADERRQ TRNUID="_TRNUID" SESSCOOKIE="_SESSCOOKIE"
+                     BANKID="0007" APPID="OLB" APPVER="v1.0" DATECREATED="_FECHA 01:00:00"                
+                     CLIENTIP="67.45.112.182" USERTYPE="PERSONAL"  CLIENTID="_CLIENTID" CLIENTTYPE="CC" /&gt;     
+        &lt;INVSTRQ PERIODICITY="_Periodicidad" INVESTMENTTYPE="SIMULATION"&gt;
+            &lt;BANKACCT ACCTTYPE="DEPOSITO"&gt;             
+                &lt;BANKID&gt;0007&lt;/BANKID&gt;             
+                &lt;ACCTID&gt;_Cuenta&lt;/ACCTID&gt;             
+                &lt;ACCTTYPECODE&gt;_TipoCuenta&lt;/ACCTTYPECODE&gt;         
+            &lt;/BANKACCT&gt;         
+            &lt;TERM&gt;_Plazo&lt;/TERM&gt;         
+            &lt;TRNAMT&gt;_Valor&lt;/TRNAMT&gt;         
+            &lt;EFECTIVERATE&gt;_TasaEfectiva&lt;/EFECTIVERATE&gt;     
+        &lt;/INVSTRQ&gt; 
 &lt;/TCFX&gt;</t>
   </si>
 </sst>
@@ -2451,9 +2466,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D98"/>
+  <dimension ref="A1:D99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A92" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="D98" sqref="D98"/>
     </sheetView>
   </sheetViews>
@@ -2770,7 +2785,7 @@
         <v>46</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="23" spans="1:4" s="2" customFormat="1">
@@ -3386,7 +3401,7 @@
         <v>180</v>
       </c>
       <c r="D66" s="11" t="s">
-        <v>181</v>
+        <v>272</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -3397,10 +3412,10 @@
         <v>25</v>
       </c>
       <c r="C67" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="D67" s="11" t="s">
         <v>182</v>
-      </c>
-      <c r="D67" s="11" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -3408,13 +3423,13 @@
         <v>136</v>
       </c>
       <c r="B68" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="C68" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="C68" s="10" t="s">
+      <c r="D68" s="11" t="s">
         <v>185</v>
-      </c>
-      <c r="D68" s="11" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -3422,13 +3437,13 @@
         <v>136</v>
       </c>
       <c r="B69" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="C69" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="C69" s="10" t="s">
+      <c r="D69" s="11" t="s">
         <v>188</v>
-      </c>
-      <c r="D69" s="11" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -3436,13 +3451,13 @@
         <v>136</v>
       </c>
       <c r="B70" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="C70" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="C70" s="10" t="s">
+      <c r="D70" s="11" t="s">
         <v>191</v>
-      </c>
-      <c r="D70" s="11" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -3450,13 +3465,13 @@
         <v>136</v>
       </c>
       <c r="B71" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="C71" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="C71" s="10" t="s">
+      <c r="D71" s="11" t="s">
         <v>194</v>
-      </c>
-      <c r="D71" s="11" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -3464,13 +3479,13 @@
         <v>136</v>
       </c>
       <c r="B72" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="C72" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="C72" s="10" t="s">
+      <c r="D72" s="11" t="s">
         <v>197</v>
-      </c>
-      <c r="D72" s="11" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -3478,13 +3493,13 @@
         <v>136</v>
       </c>
       <c r="B73" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="C73" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="C73" s="10" t="s">
-        <v>200</v>
-      </c>
       <c r="D73" s="11" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -3492,13 +3507,13 @@
         <v>136</v>
       </c>
       <c r="B74" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="C74" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="C74" s="10" t="s">
+      <c r="D74" s="11" t="s">
         <v>202</v>
-      </c>
-      <c r="D74" s="11" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -3509,10 +3524,10 @@
         <v>47</v>
       </c>
       <c r="C75" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="D75" s="11" t="s">
         <v>204</v>
-      </c>
-      <c r="D75" s="11" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -3523,10 +3538,10 @@
         <v>94</v>
       </c>
       <c r="C76" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="D76" s="11" t="s">
         <v>206</v>
-      </c>
-      <c r="D76" s="11" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -3534,13 +3549,13 @@
         <v>136</v>
       </c>
       <c r="B77" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="C77" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="C77" s="10" t="s">
+      <c r="D77" s="11" t="s">
         <v>209</v>
-      </c>
-      <c r="D77" s="11" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -3548,13 +3563,13 @@
         <v>136</v>
       </c>
       <c r="B78" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="C78" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="C78" s="10" t="s">
+      <c r="D78" s="11" t="s">
         <v>212</v>
-      </c>
-      <c r="D78" s="11" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -3562,13 +3577,13 @@
         <v>136</v>
       </c>
       <c r="B79" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="C79" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="C79" s="10" t="s">
+      <c r="D79" s="11" t="s">
         <v>215</v>
-      </c>
-      <c r="D79" s="11" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -3576,13 +3591,13 @@
         <v>136</v>
       </c>
       <c r="B80" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="C80" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="C80" s="10" t="s">
+      <c r="D80" s="11" t="s">
         <v>218</v>
-      </c>
-      <c r="D80" s="11" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -3590,13 +3605,13 @@
         <v>136</v>
       </c>
       <c r="B81" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="C81" s="10" t="s">
         <v>220</v>
       </c>
-      <c r="C81" s="10" t="s">
+      <c r="D81" s="11" t="s">
         <v>221</v>
-      </c>
-      <c r="D81" s="11" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -3604,13 +3619,13 @@
         <v>136</v>
       </c>
       <c r="B82" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="C82" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="C82" s="10" t="s">
+      <c r="D82" s="9" t="s">
         <v>224</v>
-      </c>
-      <c r="D82" s="9" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -3618,13 +3633,13 @@
         <v>136</v>
       </c>
       <c r="B83" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="C83" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="C83" s="10" t="s">
+      <c r="D83" s="9" t="s">
         <v>227</v>
-      </c>
-      <c r="D83" s="9" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -3632,13 +3647,13 @@
         <v>136</v>
       </c>
       <c r="B84" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="C84" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="C84" s="10" t="s">
+      <c r="D84" s="9" t="s">
         <v>230</v>
-      </c>
-      <c r="D84" s="9" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -3646,13 +3661,13 @@
         <v>136</v>
       </c>
       <c r="B85" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="C85" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="C85" s="10" t="s">
+      <c r="D85" s="13" t="s">
         <v>233</v>
-      </c>
-      <c r="D85" s="13" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -3663,10 +3678,10 @@
         <v>91</v>
       </c>
       <c r="C86" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="D86" s="13" t="s">
         <v>235</v>
-      </c>
-      <c r="D86" s="13" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -3674,13 +3689,13 @@
         <v>136</v>
       </c>
       <c r="B87" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="C87" s="10" t="s">
         <v>237</v>
       </c>
-      <c r="C87" s="10" t="s">
+      <c r="D87" s="13" t="s">
         <v>238</v>
-      </c>
-      <c r="D87" s="13" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -3691,10 +3706,10 @@
         <v>114</v>
       </c>
       <c r="C88" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="D88" s="13" t="s">
         <v>240</v>
-      </c>
-      <c r="D88" s="13" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -3702,13 +3717,13 @@
         <v>136</v>
       </c>
       <c r="B89" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="C89" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="C89" s="10" t="s">
+      <c r="D89" s="9" t="s">
         <v>243</v>
-      </c>
-      <c r="D89" s="9" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -3716,13 +3731,13 @@
         <v>136</v>
       </c>
       <c r="B90" s="14" t="s">
+        <v>244</v>
+      </c>
+      <c r="C90" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="C90" s="10" t="s">
+      <c r="D90" s="9" t="s">
         <v>246</v>
-      </c>
-      <c r="D90" s="9" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -3730,13 +3745,13 @@
         <v>136</v>
       </c>
       <c r="B91" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="C91" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="C91" s="10" t="s">
+      <c r="D91" s="9" t="s">
         <v>249</v>
-      </c>
-      <c r="D91" s="9" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -3744,13 +3759,13 @@
         <v>136</v>
       </c>
       <c r="B92" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="C92" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="C92" s="10" t="s">
+      <c r="D92" s="9" t="s">
         <v>252</v>
-      </c>
-      <c r="D92" s="9" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -3758,13 +3773,13 @@
         <v>136</v>
       </c>
       <c r="B93" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="C93" s="10" t="s">
         <v>254</v>
       </c>
-      <c r="C93" s="10" t="s">
+      <c r="D93" s="11" t="s">
         <v>255</v>
-      </c>
-      <c r="D93" s="11" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -3772,13 +3787,13 @@
         <v>136</v>
       </c>
       <c r="B94" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="C94" s="10" t="s">
         <v>257</v>
       </c>
-      <c r="C94" s="10" t="s">
+      <c r="D94" s="11" t="s">
         <v>258</v>
-      </c>
-      <c r="D94" s="11" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -3786,54 +3801,68 @@
         <v>136</v>
       </c>
       <c r="B95" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="C95" s="10" t="s">
         <v>260</v>
       </c>
-      <c r="C95" s="10" t="s">
+      <c r="D95" s="11" t="s">
         <v>261</v>
-      </c>
-      <c r="D95" s="11" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="D96" s="1" t="s">
         <v>270</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="D96" s="1" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C98" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="D98" s="1" t="s">
+      <c r="B99" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D99" s="1" t="s">
         <v>273</v>
       </c>
     </row>

--- a/APP_PERSONAS_XML/src/test/resources/templatesxml/Xml_Transacciones_Canales.xlsx
+++ b/APP_PERSONAS_XML/src/test/resources/templatesxml/Xml_Transacciones_Canales.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="277">
   <si>
     <t>Canal</t>
   </si>
@@ -2078,6 +2078,25 @@
             &lt;TRNAMT&gt;_Valor&lt;/TRNAMT&gt;         
             &lt;EFECTIVERATE&gt;_TasaEfectiva&lt;/EFECTIVERATE&gt;     
         &lt;/INVSTRQ&gt; 
+&lt;/TCFX&gt;</t>
+  </si>
+  <si>
+    <t>Consulta costo tarjetas</t>
+  </si>
+  <si>
+    <t>&lt;TCFX&gt; 
+&lt;HEADERRQ TRNUID="_TRNUID" SESSCOOKIE="_SESSCOOKIE" BANKID="0007" APPID="APP_Personal" APPVER="v1.0" DATECREATED="_FECHA 10:29:10" 
+CLIENTIP="201.232.87.175" USERTYPE="PERSONAL" CLIENTID="_CLIENTID" CLIENTTYPE="CC" /&gt; 
+&lt;FEEINQRQ&gt; 
+&lt;NAME&gt;MPSERVICECOST&lt;/NAME&gt; 
+&lt;ACCTFROM&gt; 
+&lt;BANKACCT&gt; 
+&lt;BANKID&gt;0007&lt;/BANKID&gt; 
+&lt;ACCTID&gt;_NUMEROTARJETA&lt;/ACCTID&gt; 
+&lt;ACCTTYPECODE&gt;_TIPOTARJETA&lt;/ACCTTYPECODE&gt; 
+&lt;/BANKACCT&gt; 
+&lt;/ACCTFROM&gt; 
+&lt;/FEEINQRQ&gt; 
 &lt;/TCFX&gt;</t>
   </si>
 </sst>
@@ -2466,10 +2485,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D99"/>
+  <dimension ref="A1:D100"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A92" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D98" sqref="D98"/>
+      <selection activeCell="D100" sqref="D100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.125" defaultRowHeight="14.25"/>
@@ -3866,6 +3885,20 @@
         <v>273</v>
       </c>
     </row>
+    <row r="100" spans="1:4">
+      <c r="A100" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions gridLines="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/APP_PERSONAS_XML/src/test/resources/templatesxml/Xml_Transacciones_Canales.xlsx
+++ b/APP_PERSONAS_XML/src/test/resources/templatesxml/Xml_Transacciones_Canales.xlsx
@@ -2085,7 +2085,7 @@
   </si>
   <si>
     <t>&lt;TCFX&gt; 
-&lt;HEADERRQ TRNUID="_TRNUID" SESSCOOKIE="_SESSCOOKIE" BANKID="0007" APPID="APP_Personal" APPVER="v1.0" DATECREATED="_FECHA 10:29:10" 
+&lt;HEADERRQ TRNUID="_TRNUID" SESSCOOKIE="_SESSCOOKIE" BANKID="0007" APPID="OLB" APPVER="v1.0" DATECREATED="_FECHA 10:29:10" 
 CLIENTIP="201.232.87.175" USERTYPE="PERSONAL" CLIENTID="_CLIENTID" CLIENTTYPE="CC" /&gt; 
 &lt;FEEINQRQ&gt; 
 &lt;NAME&gt;MPSERVICECOST&lt;/NAME&gt; 
@@ -2173,7 +2173,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2205,6 +2205,9 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3885,7 +3888,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="100" spans="1:4">
+    <row r="100" spans="1:4" ht="213.75">
       <c r="A100" s="1" t="s">
         <v>269</v>
       </c>
@@ -3895,7 +3898,7 @@
       <c r="C100" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="D100" s="1" t="s">
+      <c r="D100" s="15" t="s">
         <v>276</v>
       </c>
     </row>
